--- a/tools/easy-poi/src/main/resources/doc/user_template.xlsx
+++ b/tools/easy-poi/src/main/resources/doc/user_template.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My\dev\Ateng-Java\tools\easy-poi\src\main\resources\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sources\my\Ateng-Java\tools\easy-poi\src\main\resources\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91C3C93-5F87-4E90-AC51-68ED711A709E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08B34F9-3DF7-439D-8A05-660C84CA2345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-870" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>用户信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +45,10 @@
   </si>
   <si>
     <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>``````1111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,9 +377,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520FCD9A-2B73-4D32-991E-7B7AD8598F0E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
